--- a/data/trans_dic/P16B18-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Habitat-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos medicamentos anticonceptivos fueron recetados (tasa de respuesta: 98,6%)</t>
+          <t>Mujeres menores de 55 años cuyos anticonceptivos consumidos fueron recetados por el médico (tasa de respuesta: 98,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -887,7 +887,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos medicamentos anticonceptivos fueron recetados (tasa de respuesta: 98,6%)</t>
+          <t>Mujeres menores de 55 años cuyos anticonceptivos consumidos fueron recetados por el médico (tasa de respuesta: 98,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16B18-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Habitat-trans_dic.xlsx
@@ -601,11 +601,11 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8313457760734366</v>
+        <v>0.8293370118311407</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>0.699093582745571</v>
+        <v>0.7227540230365138</v>
       </c>
     </row>
     <row r="6">
@@ -620,7 +620,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.9669594960832445</v>
+        <v>0.9672192434744367</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8829685851124144</v>
+        <v>0.8807088871724307</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9357621454799129</v>
+        <v>0.9216092675134412</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8737202591600763</v>
+        <v>0.8750179975303936</v>
       </c>
     </row>
     <row r="9">
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8106122296437787</v>
+        <v>0.8437543927823659</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.888430024594593</v>
+        <v>0.8926039468013925</v>
       </c>
       <c r="E11" s="5" t="inlineStr"/>
     </row>
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9787225052293516</v>
+        <v>0.9791062182942663</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>1</v>
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7632426554986531</v>
+        <v>0.7613365722428751</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8993847458400934</v>
+        <v>0.9119512258951128</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8638751624117262</v>
+        <v>0.8660299182806511</v>
       </c>
     </row>
     <row r="15">
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9232409628189204</v>
+        <v>0.9235044875634708</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>1</v>
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8717059762207751</v>
+        <v>0.870982431895225</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9559464742668228</v>
+        <v>0.9555584397089931</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9177086657736255</v>
+        <v>0.9124452583105171</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9478385631103613</v>
+        <v>0.9471301261646864</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9954583435415187</v>
+        <v>0.9956036477112806</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9819180548731533</v>
+        <v>0.9813779018436163</v>
       </c>
     </row>
     <row r="19">
@@ -971,11 +971,11 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>31173</v>
+        <v>31098</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
-        <v>17681</v>
+        <v>18279</v>
       </c>
     </row>
     <row r="7">
@@ -990,7 +990,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>24455</v>
+        <v>24462</v>
       </c>
     </row>
     <row r="8">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>46306</v>
+        <v>46188</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>65322</v>
+        <v>64334</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>34819</v>
+        <v>34870</v>
       </c>
     </row>
     <row r="11">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>36727</v>
+        <v>38229</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>41435</v>
+        <v>41630</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
     </row>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>44344</v>
+        <v>44361</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>46639</v>
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>57952</v>
+        <v>57808</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>58197</v>
+        <v>59011</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>39274</v>
+        <v>39372</v>
       </c>
     </row>
     <row r="19">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>70101</v>
+        <v>70121</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>64708</v>
@@ -1251,13 +1251,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>184085</v>
+        <v>183932</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>215076</v>
+        <v>214989</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>134566</v>
+        <v>133795</v>
       </c>
     </row>
     <row r="23">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>200163</v>
+        <v>200013</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>223966</v>
+        <v>223999</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>143982</v>
+        <v>143902</v>
       </c>
     </row>
     <row r="24">
